--- a/flask-back-end/data_5_galaxies.xlsx
+++ b/flask-back-end/data_5_galaxies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="104">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -43,7 +43,10 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
-    <t xml:space="preserve">j_upper</t>
+    <t xml:space="preserve">emitted_frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">species</t>
   </si>
   <si>
     <t xml:space="preserve">integrated_line_flux</t>
@@ -116,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">QSO_RQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
   </si>
   <si>
     <t xml:space="preserve">z</t>
@@ -558,7 +564,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,10 +678,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -849,24 +851,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AC99"/>
+  <dimension ref="A1:AD99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="76.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="75.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="76.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="75.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -945,3113 +947,3242 @@
       <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="9"/>
       <c r="H2" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="11" t="n">
         <v>1.378</v>
-      </c>
-      <c r="J2" s="11" t="n">
-        <v>0.25</v>
       </c>
       <c r="K2" s="11" t="n">
         <v>0.25</v>
       </c>
-      <c r="L2" s="9" t="n">
+      <c r="L2" s="11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M2" s="9" t="n">
         <v>2.78</v>
       </c>
-      <c r="M2" s="11" t="n">
+      <c r="N2" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="N2" s="9" t="n">
+      <c r="O2" s="9" t="n">
         <v>0.4</v>
       </c>
-      <c r="O2" s="11" t="n">
+      <c r="P2" s="11" t="n">
         <v>468</v>
-      </c>
-      <c r="P2" s="11" t="n">
-        <v>94</v>
       </c>
       <c r="Q2" s="11" t="n">
         <v>94</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="11" t="n">
+      <c r="R2" s="11" t="n">
+        <v>94</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="11" t="n">
         <v>2.5564</v>
-      </c>
-      <c r="T2" s="11" t="n">
-        <v>0.0004</v>
       </c>
       <c r="U2" s="11" t="n">
         <v>0.0004</v>
       </c>
-      <c r="V2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="9" t="n">
+      <c r="V2" s="11" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="9" t="n">
         <v>3.7</v>
       </c>
-      <c r="X2" s="9" t="n">
+      <c r="Y2" s="9" t="n">
         <v>2.1</v>
       </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="Z2" s="9"/>
       <c r="AA2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="19" t="n">
         <v>1.358</v>
-      </c>
-      <c r="J3" s="19" t="n">
-        <v>0.065</v>
       </c>
       <c r="K3" s="19" t="n">
         <v>0.065</v>
       </c>
-      <c r="L3" s="9" t="n">
+      <c r="L3" s="19" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="M3" s="9" t="n">
         <v>2.72</v>
       </c>
-      <c r="M3" s="11" t="n">
+      <c r="N3" s="11" t="n">
         <v>0.12</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="O3" s="9" t="n">
         <v>0.12</v>
       </c>
-      <c r="O3" s="19" t="n">
+      <c r="P3" s="19" t="n">
         <v>470</v>
-      </c>
-      <c r="P3" s="19" t="n">
-        <v>27</v>
       </c>
       <c r="Q3" s="19" t="n">
         <v>27</v>
       </c>
-      <c r="R3" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="19" t="n">
+      <c r="R3" s="19" t="n">
+        <v>27</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" s="19" t="n">
         <v>2.5578</v>
-      </c>
-      <c r="T3" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U3" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="X3" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB3" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="19" t="n">
         <v>1.406</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>0.053</v>
       </c>
       <c r="K4" s="19" t="n">
         <v>0.053</v>
       </c>
-      <c r="L4" s="9" t="n">
+      <c r="L4" s="19" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="M4" s="9" t="n">
         <v>3.14</v>
       </c>
-      <c r="M4" s="11" t="n">
+      <c r="N4" s="11" t="n">
         <v>0.11</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="O4" s="9" t="n">
         <v>0.11</v>
       </c>
-      <c r="O4" s="19" t="n">
+      <c r="P4" s="19" t="n">
         <v>422</v>
-      </c>
-      <c r="P4" s="19" t="n">
-        <v>19</v>
       </c>
       <c r="Q4" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="R4" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="19" t="n">
+      <c r="R4" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T4" s="19" t="n">
         <v>2.5574</v>
-      </c>
-      <c r="T4" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U4" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X4" s="9" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y4" s="17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="9" t="n">
-        <v>23</v>
-      </c>
-      <c r="X4" s="17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="n">
         <v>11.1</v>
-      </c>
-      <c r="J5" s="19" t="n">
-        <v>1.1</v>
       </c>
       <c r="K5" s="19" t="n">
         <v>1.1</v>
       </c>
-      <c r="L5" s="9" t="n">
+      <c r="L5" s="19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M5" s="9" t="n">
         <v>29</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="N5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="N5" s="9" t="n">
+      <c r="O5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="O5" s="19" t="n">
+      <c r="P5" s="19" t="n">
         <v>359</v>
-      </c>
-      <c r="P5" s="19" t="n">
-        <v>36</v>
       </c>
       <c r="Q5" s="19" t="n">
         <v>36</v>
       </c>
-      <c r="R5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="19" t="n">
+      <c r="R5" s="19" t="n">
+        <v>36</v>
+      </c>
+      <c r="S5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="19" t="n">
         <v>2.558</v>
-      </c>
-      <c r="T5" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U5" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="17"/>
+      <c r="V5" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="9"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="Z5" s="17"/>
       <c r="AA5" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="19" t="n">
         <v>7.98</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>1.21</v>
       </c>
       <c r="K6" s="19" t="n">
         <v>1.21</v>
       </c>
-      <c r="L6" s="9" t="n">
+      <c r="L6" s="19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M6" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="N6" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="O6" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="O6" s="19" t="n">
+      <c r="P6" s="19" t="n">
         <v>326</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>25</v>
       </c>
       <c r="Q6" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="R6" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="19" t="n">
+      <c r="R6" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="S6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" s="19" t="n">
         <v>2.5585</v>
-      </c>
-      <c r="T6" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U6" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V6" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W6" s="9" t="n">
+      <c r="V6" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X6" s="9" t="n">
         <v>8.6</v>
       </c>
-      <c r="X6" s="17" t="n">
+      <c r="Y6" s="17" t="n">
         <v>7.1</v>
       </c>
-      <c r="Y6" s="17" t="n">
+      <c r="Z6" s="17" t="n">
         <v>22</v>
-      </c>
-      <c r="Z6" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="AA6" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AB6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="19" t="n">
         <v>15.4</v>
-      </c>
-      <c r="J7" s="19" t="n">
-        <v>4.6</v>
       </c>
       <c r="K7" s="19" t="n">
         <v>4.6</v>
       </c>
-      <c r="L7" s="9" t="n">
+      <c r="L7" s="19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M7" s="9" t="n">
         <v>41</v>
       </c>
-      <c r="M7" s="11" t="n">
+      <c r="N7" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="N7" s="9" t="n">
+      <c r="O7" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="O7" s="19" t="n">
+      <c r="P7" s="19" t="n">
         <v>352</v>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>81</v>
       </c>
       <c r="Q7" s="19" t="n">
         <v>81</v>
       </c>
-      <c r="R7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="19" t="n">
+      <c r="R7" s="19" t="n">
+        <v>81</v>
+      </c>
+      <c r="S7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="19" t="n">
         <v>2.5579</v>
-      </c>
-      <c r="T7" s="19" t="n">
-        <v>0.0004</v>
       </c>
       <c r="U7" s="19" t="n">
         <v>0.0004</v>
       </c>
-      <c r="V7" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W7" s="9" t="n">
+      <c r="V7" s="19" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="W7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X7" s="9" t="n">
         <v>2.8</v>
       </c>
-      <c r="X7" s="17" t="n">
+      <c r="Y7" s="17" t="n">
         <v>2.4</v>
       </c>
-      <c r="Y7" s="17" t="n">
+      <c r="Z7" s="17" t="n">
         <v>-67</v>
       </c>
-      <c r="Z7" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="AA7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+      <c r="AB7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="19" t="n">
         <v>9.9</v>
-      </c>
-      <c r="J8" s="19" t="n">
-        <v>0.6</v>
       </c>
       <c r="K8" s="19" t="n">
         <v>0.6</v>
       </c>
-      <c r="L8" s="9" t="n">
+      <c r="L8" s="19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="9" t="n">
         <v>25.8</v>
       </c>
-      <c r="M8" s="11" t="n">
+      <c r="N8" s="11" t="n">
         <v>1.6</v>
       </c>
-      <c r="N8" s="9" t="n">
+      <c r="O8" s="9" t="n">
         <v>1.6</v>
       </c>
-      <c r="O8" s="19" t="n">
+      <c r="P8" s="19" t="n">
         <v>362</v>
-      </c>
-      <c r="P8" s="19" t="n">
-        <v>23</v>
       </c>
       <c r="Q8" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="R8" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="19" t="n">
+      <c r="R8" s="19" t="n">
+        <v>23</v>
+      </c>
+      <c r="S8" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="19" t="n">
         <v>2.5576</v>
-      </c>
-      <c r="T8" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U8" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="17"/>
+      <c r="V8" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X8" s="9"/>
       <c r="Y8" s="17"/>
-      <c r="Z8" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z8" s="17"/>
       <c r="AA8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="17" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="19" t="n">
         <v>13.2</v>
-      </c>
-      <c r="J9" s="19" t="n">
-        <v>0.2</v>
       </c>
       <c r="K9" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="L9" s="9" t="n">
+      <c r="L9" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M9" s="9" t="n">
         <v>30</v>
       </c>
-      <c r="M9" s="11" t="n">
+      <c r="N9" s="11" t="n">
         <v>1.7</v>
       </c>
-      <c r="N9" s="9" t="n">
+      <c r="O9" s="9" t="n">
         <v>1.7</v>
       </c>
-      <c r="O9" s="19" t="n">
+      <c r="P9" s="19" t="n">
         <v>416</v>
-      </c>
-      <c r="P9" s="19" t="n">
-        <v>6</v>
       </c>
       <c r="Q9" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="R9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="19" t="n">
+      <c r="R9" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="19" t="n">
         <v>2.55784</v>
-      </c>
-      <c r="T9" s="19" t="n">
-        <v>3E-005</v>
       </c>
       <c r="U9" s="19" t="n">
         <v>3E-005</v>
       </c>
-      <c r="V9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="17"/>
+      <c r="V9" s="19" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="W9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X9" s="9"/>
       <c r="Y9" s="17"/>
-      <c r="Z9" s="21" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z9" s="17"/>
       <c r="AA9" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17" t="n">
-        <v>4</v>
-      </c>
-      <c r="I10" s="19" t="n">
+        <v>461.0407682</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="19" t="n">
         <v>21.1</v>
-      </c>
-      <c r="J10" s="19" t="n">
-        <v>0.8</v>
       </c>
       <c r="K10" s="19" t="n">
         <v>0.8</v>
       </c>
-      <c r="L10" s="9" t="n">
+      <c r="L10" s="19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="9" t="n">
         <v>52.7</v>
       </c>
-      <c r="M10" s="11" t="n">
+      <c r="N10" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="N10" s="9" t="n">
+      <c r="O10" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="19" t="n">
+      <c r="P10" s="19" t="n">
         <v>375</v>
-      </c>
-      <c r="P10" s="19" t="n">
-        <v>16</v>
       </c>
       <c r="Q10" s="19" t="n">
         <v>16</v>
       </c>
-      <c r="R10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="19" t="n">
+      <c r="R10" s="19" t="n">
+        <v>16</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="19" t="n">
         <v>2.55804</v>
-      </c>
-      <c r="T10" s="19" t="n">
-        <v>8E-005</v>
       </c>
       <c r="U10" s="19" t="n">
         <v>8E-005</v>
       </c>
-      <c r="V10" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W10" s="9"/>
-      <c r="X10" s="17"/>
+      <c r="V10" s="19" t="n">
+        <v>8E-005</v>
+      </c>
+      <c r="W10" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X10" s="9"/>
       <c r="Y10" s="17"/>
-      <c r="Z10" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z10" s="17"/>
       <c r="AA10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="AB10" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I11" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="19" t="n">
         <v>24</v>
-      </c>
-      <c r="J11" s="19" t="n">
-        <v>1.4</v>
       </c>
       <c r="K11" s="19" t="n">
         <v>1.4</v>
       </c>
-      <c r="L11" s="9" t="n">
+      <c r="L11" s="19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M11" s="9" t="n">
         <v>55.6</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="N11" s="11" t="n">
         <v>3.2</v>
       </c>
-      <c r="N11" s="9" t="n">
+      <c r="O11" s="9" t="n">
         <v>3.2</v>
       </c>
-      <c r="O11" s="19" t="n">
+      <c r="P11" s="19" t="n">
         <v>398</v>
-      </c>
-      <c r="P11" s="19" t="n">
-        <v>25</v>
       </c>
       <c r="Q11" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="R11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="19" t="n">
+      <c r="R11" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="S11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T11" s="19" t="n">
         <v>2.558</v>
-      </c>
-      <c r="T11" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U11" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V11" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W11" s="9"/>
-      <c r="X11" s="17"/>
+      <c r="V11" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X11" s="9"/>
       <c r="Y11" s="17"/>
-      <c r="Z11" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z11" s="17"/>
       <c r="AA11" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="AB11" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="I12" s="19" t="n">
+        <v>691.4730763</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="19" t="n">
         <v>37</v>
-      </c>
-      <c r="J12" s="19" t="n">
-        <v>8.1</v>
       </c>
       <c r="K12" s="19" t="n">
         <v>8.1</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="19"/>
+      <c r="L12" s="19" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
-      <c r="R12" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="19" t="n">
+      <c r="R12" s="19"/>
+      <c r="S12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T12" s="19" t="n">
         <v>194.3</v>
       </c>
-      <c r="T12" s="19"/>
       <c r="U12" s="19"/>
-      <c r="V12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="9" t="n">
+      <c r="V12" s="19"/>
+      <c r="W12" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X12" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="Y12" s="17" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y12" s="17" t="n">
+      <c r="Z12" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="Z12" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="AA12" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I13" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="19" t="n">
         <v>47.3</v>
-      </c>
-      <c r="J13" s="19" t="n">
-        <v>2.2</v>
       </c>
       <c r="K13" s="19" t="n">
         <v>2.2</v>
       </c>
-      <c r="L13" s="9" t="n">
+      <c r="L13" s="19" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M13" s="9" t="n">
         <v>109</v>
       </c>
-      <c r="M13" s="11" t="n">
+      <c r="N13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="O13" s="9" t="n">
         <v>5</v>
       </c>
-      <c r="O13" s="19"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
-      <c r="R13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" s="19" t="n">
+      <c r="R13" s="19"/>
+      <c r="S13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="19" t="n">
         <v>2.5578</v>
-      </c>
-      <c r="T13" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U13" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W13" s="9"/>
-      <c r="X13" s="17"/>
+      <c r="V13" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="9"/>
       <c r="Y13" s="17"/>
-      <c r="Z13" s="21" t="s">
-        <v>44</v>
-      </c>
+      <c r="Z13" s="17"/>
       <c r="AA13" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="AB13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I14" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="19" t="n">
         <v>41</v>
-      </c>
-      <c r="J14" s="19" t="n">
-        <v>4</v>
       </c>
       <c r="K14" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="19" t="n">
+      <c r="L14" s="19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="19" t="n">
         <v>339</v>
-      </c>
-      <c r="P14" s="19" t="n">
-        <v>21</v>
       </c>
       <c r="Q14" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="R14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="19" t="n">
+      <c r="R14" s="19" t="n">
+        <v>21</v>
+      </c>
+      <c r="S14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="19" t="n">
         <v>2.5582</v>
-      </c>
-      <c r="T14" s="19" t="n">
-        <v>0.0003</v>
       </c>
       <c r="U14" s="19" t="n">
         <v>0.0003</v>
       </c>
-      <c r="V14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W14" s="9" t="n">
+      <c r="V14" s="19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="W14" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X14" s="9" t="n">
         <v>0.86</v>
       </c>
-      <c r="X14" s="17" t="n">
+      <c r="Y14" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="Y14" s="17" t="n">
+      <c r="Z14" s="17" t="n">
         <v>73</v>
       </c>
-      <c r="Z14" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="AA14" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I15" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="19" t="n">
         <v>50.1</v>
-      </c>
-      <c r="J15" s="19" t="n">
-        <v>2.8</v>
       </c>
       <c r="K15" s="19" t="n">
         <v>2.8</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="19" t="n">
+      <c r="L15" s="19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="19" t="n">
         <v>480</v>
-      </c>
-      <c r="P15" s="19" t="n">
-        <v>35</v>
       </c>
       <c r="Q15" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="R15" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="19" t="n">
+      <c r="R15" s="19" t="n">
+        <v>35</v>
+      </c>
+      <c r="S15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="19" t="n">
         <v>2.5579</v>
-      </c>
-      <c r="T15" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U15" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="W15" s="9" t="n">
+      <c r="V15" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="9" t="n">
         <v>0.77</v>
       </c>
-      <c r="X15" s="17" t="n">
+      <c r="Y15" s="17" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y15" s="17" t="n">
+      <c r="Z15" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="Z15" s="21" t="s">
-        <v>55</v>
-      </c>
       <c r="AA15" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB15" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="AB15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="n">
-        <v>7</v>
-      </c>
-      <c r="I16" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="19" t="n">
         <v>45.3</v>
-      </c>
-      <c r="J16" s="19" t="n">
-        <v>6.3</v>
       </c>
       <c r="K16" s="19" t="n">
         <v>6.3</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="19"/>
+      <c r="L16" s="19" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M16" s="9"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="19"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="9" t="n">
+      <c r="Q16" s="19"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" s="9" t="n">
         <v>226.7</v>
       </c>
-      <c r="T16" s="17"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W16" s="9" t="n">
+      <c r="V16" s="17"/>
+      <c r="W16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X16" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="X16" s="17" t="n">
+      <c r="Y16" s="17" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y16" s="17" t="n">
+      <c r="Z16" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="Z16" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="AA16" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="AB16" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="17" t="n">
-        <v>8</v>
-      </c>
-      <c r="I17" s="19" t="n">
+        <v>921.7997</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="n">
         <v>51.4</v>
-      </c>
-      <c r="J17" s="19" t="n">
-        <v>4.7</v>
       </c>
       <c r="K17" s="19" t="n">
         <v>4.7</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="19"/>
+      <c r="L17" s="19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="19"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" s="17" t="n">
+      <c r="Q17" s="19"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="T17" s="17" t="n">
         <v>259</v>
       </c>
-      <c r="T17" s="17"/>
       <c r="U17" s="17"/>
-      <c r="V17" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="W17" s="9" t="n">
+      <c r="V17" s="17"/>
+      <c r="W17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="X17" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="X17" s="17" t="n">
+      <c r="Y17" s="17" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y17" s="17" t="n">
+      <c r="Z17" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="Z17" s="21" t="s">
-        <v>50</v>
-      </c>
       <c r="AA17" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="AB17" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23" t="n">
-        <v>9</v>
-      </c>
-      <c r="I18" s="24" t="n">
+        <v>1036.912393</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="24" t="n">
         <v>41.8</v>
-      </c>
-      <c r="J18" s="24" t="n">
-        <v>5.8</v>
       </c>
       <c r="K18" s="24" t="n">
         <v>5.8</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="23"/>
+      <c r="L18" s="24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="24"/>
       <c r="Q18" s="23"/>
-      <c r="R18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="23" t="n">
+      <c r="R18" s="23"/>
+      <c r="S18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="T18" s="23" t="n">
         <v>291</v>
       </c>
-      <c r="T18" s="23"/>
       <c r="U18" s="23"/>
-      <c r="V18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="W18" s="23" t="n">
+      <c r="V18" s="23"/>
+      <c r="W18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="X18" s="23" t="n">
         <v>0.25</v>
       </c>
-      <c r="X18" s="23" t="n">
+      <c r="Y18" s="23" t="n">
         <v>0.71</v>
       </c>
-      <c r="Y18" s="23" t="n">
+      <c r="Z18" s="23" t="n">
         <v>30</v>
       </c>
-      <c r="Z18" s="25" t="s">
-        <v>50</v>
-      </c>
       <c r="AA18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="AB18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="19" t="n">
         <v>0.4</v>
-      </c>
-      <c r="J19" s="19" t="n">
-        <v>0.05</v>
       </c>
       <c r="K19" s="19" t="n">
         <v>0.05</v>
       </c>
       <c r="L19" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M19" s="19" t="n">
         <v>1.85</v>
       </c>
-      <c r="M19" s="15" t="n">
+      <c r="N19" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="N19" s="19" t="n">
+      <c r="O19" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="O19" s="19"/>
-      <c r="P19" s="15"/>
+      <c r="P19" s="19"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="19" t="n">
+      <c r="R19" s="15"/>
+      <c r="S19" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T19" s="19" t="n">
         <v>2.5652</v>
-      </c>
-      <c r="T19" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U19" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V19" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" s="15"/>
+      <c r="V19" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="X19" s="15"/>
       <c r="Y19" s="15"/>
-      <c r="Z19" s="15" t="s">
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="AA19" s="15" t="s">
+      <c r="D20" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="19" t="n">
         <v>0.32</v>
-      </c>
-      <c r="J20" s="19" t="n">
-        <v>0.04</v>
       </c>
       <c r="K20" s="19" t="n">
         <v>0.04</v>
       </c>
       <c r="L20" s="19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M20" s="19" t="n">
         <v>2.08</v>
       </c>
-      <c r="M20" s="15" t="n">
+      <c r="N20" s="15" t="n">
         <v>0.22</v>
       </c>
-      <c r="N20" s="19" t="n">
+      <c r="O20" s="19" t="n">
         <v>0.22</v>
       </c>
-      <c r="O20" s="19" t="n">
+      <c r="P20" s="19" t="n">
         <v>151</v>
-      </c>
-      <c r="P20" s="15" t="n">
-        <v>19</v>
       </c>
       <c r="Q20" s="15" t="n">
         <v>19</v>
       </c>
-      <c r="R20" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="19" t="n">
+      <c r="R20" s="15" t="n">
+        <v>19</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T20" s="19" t="n">
         <v>2.5653</v>
-      </c>
-      <c r="T20" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U20" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V20" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W20" s="15" t="n">
+      <c r="V20" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X20" s="15" t="n">
         <v>0.68</v>
       </c>
-      <c r="X20" s="15" t="n">
+      <c r="Y20" s="15" t="n">
         <v>0.52</v>
       </c>
-      <c r="Y20" s="15" t="n">
+      <c r="Z20" s="15" t="n">
         <v>119.02</v>
       </c>
-      <c r="Z20" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="AA20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="AB20" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F21" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I21" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="19" t="n">
         <v>2.4</v>
-      </c>
-      <c r="J21" s="19" t="n">
-        <v>0.3</v>
       </c>
       <c r="K21" s="19" t="n">
         <v>0.3</v>
       </c>
-      <c r="L21" s="19"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19" t="n">
+      <c r="L21" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M21" s="19"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19" t="n">
         <v>200</v>
-      </c>
-      <c r="P21" s="15" t="n">
-        <v>40</v>
       </c>
       <c r="Q21" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="R21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="19" t="n">
+      <c r="R21" s="15" t="n">
+        <v>40</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="19" t="n">
         <v>2.5653</v>
-      </c>
-      <c r="T21" s="19" t="n">
-        <v>0.0003</v>
       </c>
       <c r="U21" s="19" t="n">
         <v>0.0003</v>
       </c>
-      <c r="V21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W21" s="15" t="n">
+      <c r="V21" s="19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="X21" s="15" t="n">
         <v>6.5</v>
       </c>
-      <c r="X21" s="15" t="n">
+      <c r="Y21" s="15" t="n">
         <v>4.3</v>
       </c>
-      <c r="Y21" s="15" t="n">
+      <c r="Z21" s="15" t="n">
         <v>-26</v>
       </c>
-      <c r="Z21" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="AA21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="AB21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" s="19" t="n">
+        <v>345.7959899</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="19" t="n">
         <v>2.8</v>
-      </c>
-      <c r="J22" s="19" t="n">
-        <v>0.3</v>
       </c>
       <c r="K22" s="19" t="n">
         <v>0.3</v>
       </c>
       <c r="L22" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M22" s="19" t="n">
         <v>13.2</v>
       </c>
-      <c r="M22" s="15" t="n">
+      <c r="N22" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="N22" s="19" t="n">
+      <c r="O22" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="19" t="n">
+      <c r="P22" s="19" t="n">
         <v>190</v>
-      </c>
-      <c r="P22" s="15" t="n">
-        <v>11</v>
       </c>
       <c r="Q22" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="R22" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="S22" s="19" t="n">
+      <c r="R22" s="15" t="n">
+        <v>11</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T22" s="19" t="n">
         <v>2.5652</v>
-      </c>
-      <c r="T22" s="19" t="n">
-        <v>0.0001</v>
       </c>
       <c r="U22" s="19" t="n">
         <v>0.0001</v>
       </c>
-      <c r="V22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W22" s="15"/>
+      <c r="V22" s="19" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="W22" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="X22" s="15"/>
       <c r="Y22" s="15"/>
-      <c r="Z22" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z22" s="15"/>
       <c r="AA22" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB22" s="27"/>
-      <c r="AC22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="AB22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC22" s="27"/>
+      <c r="AD22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F23" s="26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I23" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="19" t="n">
         <v>3.2</v>
       </c>
-      <c r="J23" s="19" t="n">
+      <c r="K23" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="K23" s="16" t="n">
+      <c r="L23" s="16" t="n">
         <v>0.5</v>
       </c>
-      <c r="L23" s="16" t="n">
+      <c r="M23" s="16" t="n">
         <v>12.4</v>
       </c>
-      <c r="M23" s="15" t="n">
+      <c r="N23" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="N23" s="19" t="n">
+      <c r="O23" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="O23" s="19" t="n">
+      <c r="P23" s="19" t="n">
         <v>170</v>
-      </c>
-      <c r="P23" s="15" t="n">
-        <v>30</v>
       </c>
       <c r="Q23" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="R23" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="19" t="n">
+      <c r="R23" s="15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="19" t="n">
         <v>2.5651</v>
-      </c>
-      <c r="T23" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U23" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W23" s="15"/>
+      <c r="V23" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="X23" s="15"/>
       <c r="Y23" s="15"/>
-      <c r="Z23" s="15" t="s">
-        <v>68</v>
-      </c>
+      <c r="Z23" s="15"/>
       <c r="AA23" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="5"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="AB23" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="27"/>
+      <c r="AD23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="19" t="n">
         <v>0.165</v>
-      </c>
-      <c r="J24" s="19" t="n">
-        <v>0.014</v>
       </c>
       <c r="K24" s="19" t="n">
         <v>0.014</v>
       </c>
-      <c r="L24" s="16" t="n">
+      <c r="L24" s="19" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M24" s="16" t="n">
         <v>0.77</v>
       </c>
-      <c r="M24" s="15" t="n">
+      <c r="N24" s="15" t="n">
         <v>0.07</v>
       </c>
-      <c r="N24" s="19" t="n">
+      <c r="O24" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="O24" s="19" t="n">
+      <c r="P24" s="19" t="n">
         <v>202</v>
-      </c>
-      <c r="P24" s="19" t="n">
-        <v>17</v>
       </c>
       <c r="Q24" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="R24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S24" s="19" t="n">
+      <c r="R24" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="S24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T24" s="19" t="n">
         <v>4.1173</v>
-      </c>
-      <c r="T24" s="19" t="n">
-        <v>0.0003</v>
       </c>
       <c r="U24" s="19" t="n">
         <v>0.0003</v>
       </c>
-      <c r="V24" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W24" s="15"/>
+      <c r="V24" s="19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="X24" s="15"/>
       <c r="Y24" s="15"/>
-      <c r="Z24" s="21" t="s">
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB24" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC24" s="27"/>
+      <c r="AD24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AA24" s="21" t="s">
+      <c r="C25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="5"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>72</v>
-      </c>
       <c r="D25" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="19" t="n">
         <v>0.25</v>
-      </c>
-      <c r="J25" s="19" t="n">
-        <v>0.06</v>
       </c>
       <c r="K25" s="19" t="n">
         <v>0.06</v>
       </c>
-      <c r="L25" s="16" t="n">
+      <c r="L25" s="19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M25" s="16" t="n">
         <v>1.29</v>
       </c>
-      <c r="M25" s="15" t="n">
+      <c r="N25" s="15" t="n">
         <v>0.26</v>
       </c>
-      <c r="N25" s="19" t="n">
+      <c r="O25" s="19" t="n">
         <v>0.26</v>
       </c>
-      <c r="O25" s="19" t="n">
+      <c r="P25" s="19" t="n">
         <v>184</v>
-      </c>
-      <c r="P25" s="19" t="n">
-        <v>46</v>
       </c>
       <c r="Q25" s="19" t="n">
         <v>46</v>
       </c>
-      <c r="R25" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S25" s="19" t="n">
+      <c r="R25" s="19" t="n">
+        <v>46</v>
+      </c>
+      <c r="S25" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T25" s="19" t="n">
         <v>4.1184</v>
-      </c>
-      <c r="T25" s="19" t="n">
-        <v>0.0008</v>
       </c>
       <c r="U25" s="19" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" s="15"/>
+      <c r="V25" s="19" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="X25" s="15"/>
       <c r="Y25" s="15"/>
-      <c r="Z25" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="Z25" s="15"/>
       <c r="AA25" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="5"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC25" s="27"/>
+      <c r="AD25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19" t="n">
+        <v>115.2712018</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="19" t="n">
         <v>0.19</v>
-      </c>
-      <c r="J26" s="19" t="n">
-        <v>0.08</v>
       </c>
       <c r="K26" s="19" t="n">
         <v>0.08</v>
       </c>
-      <c r="L26" s="16" t="n">
+      <c r="L26" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M26" s="16" t="n">
         <v>0.89</v>
       </c>
-      <c r="M26" s="15" t="n">
+      <c r="N26" s="15" t="n">
         <v>0.22</v>
       </c>
-      <c r="N26" s="19" t="n">
+      <c r="O26" s="19" t="n">
         <v>0.22</v>
       </c>
-      <c r="O26" s="19" t="n">
+      <c r="P26" s="19" t="n">
         <v>200</v>
-      </c>
-      <c r="P26" s="19" t="n">
-        <v>70</v>
       </c>
       <c r="Q26" s="19" t="n">
         <v>70</v>
       </c>
-      <c r="R26" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="19" t="n">
+      <c r="R26" s="19" t="n">
+        <v>70</v>
+      </c>
+      <c r="S26" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T26" s="19" t="n">
         <v>4.1192</v>
-      </c>
-      <c r="T26" s="19" t="n">
-        <v>0.0004</v>
       </c>
       <c r="U26" s="19" t="n">
         <v>0.0004</v>
       </c>
-      <c r="V26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W26" s="15"/>
+      <c r="V26" s="19" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="21" t="s">
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB26" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC26" s="27"/>
+      <c r="AD26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AA26" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB26" s="27"/>
-      <c r="AC26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="C27" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="19" t="n">
+        <v>230.538</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="19" t="n">
         <v>0.92</v>
-      </c>
-      <c r="J27" s="19" t="n">
-        <v>0.3</v>
       </c>
       <c r="K27" s="19" t="n">
         <v>0.3</v>
       </c>
-      <c r="L27" s="16" t="n">
+      <c r="L27" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M27" s="16" t="n">
         <v>2.7</v>
       </c>
-      <c r="M27" s="15" t="n">
+      <c r="N27" s="15" t="n">
         <v>0.24</v>
       </c>
-      <c r="N27" s="19" t="n">
+      <c r="O27" s="19" t="n">
         <v>0.24</v>
       </c>
-      <c r="O27" s="19" t="n">
+      <c r="P27" s="19" t="n">
         <v>280</v>
       </c>
-      <c r="P27" s="19"/>
       <c r="Q27" s="19"/>
-      <c r="R27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S27" s="0" t="n">
+      <c r="R27" s="19"/>
+      <c r="S27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T27" s="0" t="n">
         <v>4.1191</v>
       </c>
-      <c r="T27" s="19"/>
       <c r="U27" s="19"/>
-      <c r="V27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="W27" s="15"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="X27" s="15"/>
       <c r="Y27" s="15"/>
-      <c r="Z27" s="21" t="s">
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC27" s="27"/>
+      <c r="AD27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="AA27" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB27" s="27"/>
-      <c r="AC27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>71</v>
-      </c>
       <c r="C28" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I28" s="19" t="n">
+        <v>461.0407682</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="19" t="n">
         <v>3.83</v>
-      </c>
-      <c r="J28" s="19" t="n">
-        <v>0.4</v>
       </c>
       <c r="K28" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="L28" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M28" s="19" t="n">
         <v>10.3</v>
       </c>
-      <c r="M28" s="15"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19" t="n">
+      <c r="N28" s="15"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19" t="n">
         <v>348</v>
-      </c>
-      <c r="P28" s="19" t="n">
-        <v>40</v>
       </c>
       <c r="Q28" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="R28" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S28" s="19" t="n">
+      <c r="R28" s="19" t="n">
+        <v>40</v>
+      </c>
+      <c r="S28" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="19" t="n">
         <v>4.12</v>
-      </c>
-      <c r="T28" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U28" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W28" s="15"/>
+      <c r="V28" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W28" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X28" s="15"/>
       <c r="Y28" s="15"/>
-      <c r="Z28" s="21" t="s">
-        <v>78</v>
-      </c>
+      <c r="Z28" s="15"/>
       <c r="AA28" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="AB28" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G29" s="15"/>
       <c r="H29" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" s="19" t="n">
+        <v>461.0407682</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="n">
         <v>4.21</v>
-      </c>
-      <c r="J29" s="19" t="n">
-        <v>0.4</v>
       </c>
       <c r="K29" s="19" t="n">
         <v>0.4</v>
       </c>
       <c r="L29" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M29" s="19" t="n">
         <v>10.5</v>
       </c>
-      <c r="M29" s="15"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19" t="n">
+      <c r="N29" s="15"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19" t="n">
         <v>375</v>
-      </c>
-      <c r="P29" s="19" t="n">
-        <v>41</v>
       </c>
       <c r="Q29" s="19" t="n">
         <v>41</v>
       </c>
-      <c r="R29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S29" s="19" t="n">
+      <c r="R29" s="19" t="n">
+        <v>41</v>
+      </c>
+      <c r="S29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="19" t="n">
         <v>4.1199</v>
-      </c>
-      <c r="T29" s="19" t="n">
-        <v>0.0008</v>
       </c>
       <c r="U29" s="19" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W29" s="15"/>
+      <c r="V29" s="19" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W29" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
-      <c r="Z29" s="21" t="s">
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB29" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="AA29" s="21" t="s">
+      <c r="C30" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="D30" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G30" s="15"/>
       <c r="H30" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="19" t="n">
         <v>3.74</v>
-      </c>
-      <c r="J30" s="19" t="n">
-        <v>0.56</v>
       </c>
       <c r="K30" s="19" t="n">
         <v>0.56</v>
       </c>
       <c r="L30" s="19" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="M30" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="M30" s="15"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19" t="n">
+      <c r="N30" s="15"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19" t="n">
         <v>273</v>
-      </c>
-      <c r="P30" s="19" t="n">
-        <v>50</v>
       </c>
       <c r="Q30" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="R30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S30" s="19" t="n">
+      <c r="R30" s="19" t="n">
+        <v>50</v>
+      </c>
+      <c r="S30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T30" s="19" t="n">
         <v>4.1199</v>
-      </c>
-      <c r="T30" s="19" t="n">
-        <v>0.0008</v>
       </c>
       <c r="U30" s="19" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V30" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W30" s="15"/>
+      <c r="V30" s="19" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X30" s="15"/>
       <c r="Y30" s="15"/>
-      <c r="Z30" s="21" t="s">
-        <v>82</v>
-      </c>
+      <c r="Z30" s="15"/>
       <c r="AA30" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="AB30" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G31" s="15"/>
       <c r="H31" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" s="19" t="n">
+        <v>230.538</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="19" t="n">
         <v>0.26</v>
-      </c>
-      <c r="J31" s="19" t="n">
-        <v>0.05</v>
       </c>
       <c r="K31" s="19" t="n">
         <v>0.05</v>
       </c>
       <c r="L31" s="19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M31" s="19" t="n">
         <v>0.44</v>
       </c>
-      <c r="M31" s="15" t="n">
+      <c r="N31" s="15" t="n">
         <v>0.07</v>
       </c>
-      <c r="N31" s="19" t="n">
+      <c r="O31" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="O31" s="19"/>
       <c r="P31" s="19"/>
       <c r="Q31" s="19"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="17"/>
       <c r="T31" s="19"/>
       <c r="U31" s="19"/>
-      <c r="V31" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W31" s="15" t="n">
+      <c r="V31" s="19"/>
+      <c r="W31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X31" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="X31" s="15" t="n">
+      <c r="Y31" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="21" t="s">
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB31" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA31" s="21" t="s">
+      <c r="F32" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="5"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="G32" s="15"/>
       <c r="H32" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" s="19" t="n">
+        <v>230.538</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="19" t="n">
         <v>0.39</v>
-      </c>
-      <c r="J32" s="19" t="n">
-        <v>0.08</v>
       </c>
       <c r="K32" s="19" t="n">
         <v>0.08</v>
       </c>
       <c r="L32" s="19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M32" s="19" t="n">
         <v>0.66</v>
       </c>
-      <c r="M32" s="15" t="n">
+      <c r="N32" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="N32" s="19" t="n">
+      <c r="O32" s="19" t="n">
         <v>0.1</v>
       </c>
-      <c r="O32" s="19"/>
       <c r="P32" s="19"/>
       <c r="Q32" s="19"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="17"/>
       <c r="T32" s="19"/>
       <c r="U32" s="19"/>
-      <c r="V32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W32" s="15"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
-      <c r="Z32" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z32" s="15"/>
       <c r="AA32" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="5"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="AB32" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G33" s="15"/>
       <c r="H33" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I33" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="19" t="n">
         <v>1.3</v>
-      </c>
-      <c r="J33" s="19" t="n">
-        <v>0.3</v>
       </c>
       <c r="K33" s="19" t="n">
         <v>0.3</v>
       </c>
-      <c r="L33" s="19"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19" t="n">
+      <c r="L33" s="19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M33" s="19"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19" t="n">
         <v>350</v>
       </c>
-      <c r="P33" s="19"/>
       <c r="Q33" s="19"/>
-      <c r="R33" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S33" s="19" t="n">
+      <c r="R33" s="19"/>
+      <c r="S33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T33" s="19" t="n">
         <v>4.6916</v>
       </c>
-      <c r="T33" s="19"/>
       <c r="U33" s="19"/>
-      <c r="V33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W33" s="15"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
-      <c r="Z33" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="Z33" s="15"/>
       <c r="AA33" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="5"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AB33" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G34" s="15"/>
       <c r="H34" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I34" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="19" t="n">
         <v>2.6</v>
-      </c>
-      <c r="J34" s="19" t="n">
-        <v>0.4</v>
       </c>
       <c r="K34" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="L34" s="19"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19" t="n">
+      <c r="L34" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M34" s="19"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19" t="n">
         <v>737</v>
-      </c>
-      <c r="P34" s="19" t="n">
-        <v>90</v>
       </c>
       <c r="Q34" s="19" t="n">
         <v>90</v>
       </c>
-      <c r="R34" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S34" s="19" t="n">
+      <c r="R34" s="19" t="n">
+        <v>90</v>
+      </c>
+      <c r="S34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T34" s="19" t="n">
         <v>4.6903</v>
-      </c>
-      <c r="T34" s="19" t="n">
-        <v>0.0008</v>
       </c>
       <c r="U34" s="19" t="n">
         <v>0.0008</v>
       </c>
-      <c r="V34" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W34" s="15" t="n">
+      <c r="V34" s="19" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="W34" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X34" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="X34" s="15" t="n">
+      <c r="Y34" s="15" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y34" s="15" t="n">
+      <c r="Z34" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="Z34" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="AA34" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="5"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="AB34" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G35" s="15"/>
       <c r="H35" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I35" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="19" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J35" s="19" t="n">
-        <v>0.4</v>
       </c>
       <c r="K35" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="L35" s="19"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="29"/>
+      <c r="L35" s="19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M35" s="19"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="21"/>
       <c r="U35" s="19"/>
-      <c r="V35" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W35" s="15"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z35" s="15"/>
       <c r="AA35" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="5"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="AB35" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G36" s="15"/>
       <c r="H36" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="I36" s="19" t="n">
+        <v>1267.014486</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="19" t="n">
         <v>2.9</v>
-      </c>
-      <c r="J36" s="19" t="n">
-        <v>1.8</v>
       </c>
       <c r="K36" s="19" t="n">
         <v>1.8</v>
       </c>
       <c r="L36" s="19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M36" s="19" t="n">
         <v>2.7</v>
       </c>
-      <c r="M36" s="15" t="n">
+      <c r="N36" s="15" t="n">
         <v>1.7</v>
       </c>
-      <c r="N36" s="19" t="n">
+      <c r="O36" s="19" t="n">
         <v>1.7</v>
       </c>
-      <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="17"/>
       <c r="T36" s="19"/>
       <c r="U36" s="19"/>
-      <c r="V36" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W36" s="15"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X36" s="15"/>
       <c r="Y36" s="15"/>
-      <c r="Z36" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z36" s="15"/>
       <c r="AA36" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="AB36" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G37" s="15"/>
       <c r="H37" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" s="19" t="n">
+        <v>230.538</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="19" t="n">
         <v>0.23</v>
-      </c>
-      <c r="J37" s="19" t="n">
-        <v>0.04</v>
       </c>
       <c r="K37" s="19" t="n">
         <v>0.04</v>
       </c>
       <c r="L37" s="19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M37" s="19" t="n">
         <v>0.77</v>
       </c>
-      <c r="M37" s="15" t="n">
+      <c r="N37" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="N37" s="19" t="n">
+      <c r="O37" s="19" t="n">
         <v>0.1</v>
       </c>
-      <c r="O37" s="19"/>
       <c r="P37" s="19"/>
       <c r="Q37" s="19"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="17"/>
       <c r="T37" s="19"/>
       <c r="U37" s="19"/>
-      <c r="V37" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W37" s="15" t="n">
+      <c r="V37" s="19"/>
+      <c r="W37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X37" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="X37" s="15" t="n">
+      <c r="Y37" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="21" t="s">
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="5"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="AA37" s="21" t="s">
+      <c r="F38" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="5"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>88</v>
       </c>
       <c r="G38" s="15"/>
       <c r="H38" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I38" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="19" t="n">
         <v>1.1</v>
-      </c>
-      <c r="J38" s="19" t="n">
-        <v>0.2</v>
       </c>
       <c r="K38" s="19" t="n">
         <v>0.2</v>
       </c>
-      <c r="L38" s="19"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19" t="n">
+      <c r="L38" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19" t="n">
         <v>190</v>
       </c>
-      <c r="P38" s="19"/>
       <c r="Q38" s="19"/>
-      <c r="R38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S38" s="19" t="n">
+      <c r="R38" s="19"/>
+      <c r="S38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T38" s="19" t="n">
         <v>4.6947</v>
       </c>
-      <c r="T38" s="19"/>
       <c r="U38" s="19"/>
-      <c r="V38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W38" s="15"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X38" s="15"/>
       <c r="Y38" s="15"/>
-      <c r="Z38" s="21" t="s">
-        <v>93</v>
-      </c>
+      <c r="Z38" s="15"/>
       <c r="AA38" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="5"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="AB38" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="5"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G39" s="15"/>
       <c r="H39" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="I39" s="19" t="n">
+        <v>576.2679305</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="19" t="n">
         <v>1.6</v>
-      </c>
-      <c r="J39" s="19" t="n">
-        <v>0.2</v>
       </c>
       <c r="K39" s="19" t="n">
         <v>0.2</v>
       </c>
       <c r="L39" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M39" s="19" t="n">
         <v>4.1</v>
       </c>
-      <c r="M39" s="15" t="n">
+      <c r="N39" s="15" t="n">
         <v>0.4</v>
       </c>
-      <c r="N39" s="19" t="n">
+      <c r="O39" s="19" t="n">
         <v>0.4</v>
       </c>
-      <c r="O39" s="19" t="n">
+      <c r="P39" s="19" t="n">
         <v>363</v>
-      </c>
-      <c r="P39" s="19" t="n">
-        <v>37</v>
       </c>
       <c r="Q39" s="19" t="n">
         <v>37</v>
       </c>
-      <c r="R39" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S39" s="19" t="n">
+      <c r="R39" s="19" t="n">
+        <v>37</v>
+      </c>
+      <c r="S39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T39" s="19" t="n">
         <v>4.6949</v>
-      </c>
-      <c r="T39" s="19" t="n">
-        <v>0.0003</v>
       </c>
       <c r="U39" s="19" t="n">
         <v>0.0003</v>
       </c>
-      <c r="V39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W39" s="15" t="n">
+      <c r="V39" s="19" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="X39" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="X39" s="15" t="n">
+      <c r="Y39" s="15" t="n">
         <v>0.7</v>
       </c>
-      <c r="Y39" s="15" t="n">
+      <c r="Z39" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="Z39" s="21" t="s">
-        <v>91</v>
-      </c>
       <c r="AA39" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB39" s="28"/>
-      <c r="AC39" s="5"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="AB39" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="5"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G40" s="15"/>
       <c r="H40" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="I40" s="19" t="n">
+        <v>806.651806</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="19" t="n">
         <v>2.3</v>
-      </c>
-      <c r="J40" s="19" t="n">
-        <v>0.2</v>
       </c>
       <c r="K40" s="19" t="n">
         <v>0.2</v>
       </c>
       <c r="L40" s="19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M40" s="19" t="n">
         <v>6.7</v>
       </c>
-      <c r="M40" s="15" t="n">
+      <c r="N40" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="N40" s="19" t="n">
+      <c r="O40" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="O40" s="29" t="n">
+      <c r="P40" s="19" t="n">
         <v>316</v>
-      </c>
-      <c r="P40" s="19" t="n">
-        <v>40</v>
       </c>
       <c r="Q40" s="19" t="n">
         <v>40</v>
       </c>
-      <c r="R40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S40" s="19" t="n">
+      <c r="R40" s="19" t="n">
+        <v>40</v>
+      </c>
+      <c r="S40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="T40" s="19" t="n">
         <v>4.6947</v>
-      </c>
-      <c r="T40" s="19" t="n">
-        <v>0.0002</v>
       </c>
       <c r="U40" s="19" t="n">
         <v>0.0002</v>
       </c>
-      <c r="V40" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="W40" s="15"/>
+      <c r="V40" s="19" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="W40" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="X40" s="15"/>
       <c r="Y40" s="15"/>
-      <c r="Z40" s="21" t="s">
-        <v>91</v>
-      </c>
+      <c r="Z40" s="15"/>
       <c r="AA40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB40" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="5"/>
-    </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="31" t="s">
+      <c r="B41" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F41" s="30" t="s">
+      <c r="C41" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31" t="n">
-        <v>11</v>
-      </c>
-      <c r="I41" s="32" t="n">
+      <c r="D41" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30" t="n">
+        <v>1267.014486</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="32" t="n">
+      <c r="K41" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="K41" s="32" t="n">
+      <c r="L41" s="31" t="n">
         <v>0.7</v>
       </c>
-      <c r="L41" s="32" t="n">
+      <c r="M41" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="M41" s="31" t="n">
+      <c r="N41" s="30" t="n">
         <v>1.9</v>
       </c>
-      <c r="N41" s="32" t="n">
+      <c r="O41" s="31" t="n">
         <v>1.9</v>
       </c>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA41" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB41" s="28"/>
-      <c r="AC41" s="5"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="31"/>
+      <c r="U41" s="31"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB41" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC41" s="28"/>
+      <c r="AD41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
-      <c r="F42" s="34"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="36"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
+      <c r="R42" s="34"/>
       <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="27"/>
+      <c r="T42" s="34"/>
+      <c r="U42" s="34"/>
+      <c r="V42" s="34"/>
       <c r="W42" s="27"/>
       <c r="X42" s="27"/>
       <c r="Y42" s="27"/>
-      <c r="Z42" s="28"/>
+      <c r="Z42" s="27"/>
       <c r="AA42" s="28"/>
       <c r="AB42" s="28"/>
-      <c r="AC42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="5"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="34"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="36"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
       <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="27"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
       <c r="W43" s="27"/>
       <c r="X43" s="27"/>
       <c r="Y43" s="27"/>
-      <c r="Z43" s="28"/>
+      <c r="Z43" s="27"/>
       <c r="AA43" s="28"/>
       <c r="AB43" s="28"/>
-      <c r="AC43" s="5"/>
-    </row>
-    <row r="44" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="36"/>
+      <c r="AC43" s="28"/>
+      <c r="AD43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="36"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
       <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="36"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="35"/>
-      <c r="O44" s="36"/>
+      <c r="O44" s="34"/>
       <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="36"/>
-      <c r="S44" s="36"/>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
-      <c r="AA44" s="28"/>
+      <c r="Q44" s="34"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
       <c r="AB44" s="28"/>
-      <c r="AC44" s="5"/>
-    </row>
-    <row r="46" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="37"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="5"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="36"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
       <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="36"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="35"/>
-      <c r="O46" s="36"/>
+      <c r="O46" s="34"/>
       <c r="P46" s="35"/>
-      <c r="Q46" s="36"/>
-      <c r="R46" s="36"/>
-      <c r="S46" s="36"/>
-      <c r="T46" s="36"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="36"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="36"/>
-      <c r="Y46" s="36"/>
-      <c r="Z46" s="36"/>
-      <c r="AA46" s="28"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
       <c r="AB46" s="28"/>
-      <c r="AC46" s="5"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="37"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="36"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
       <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="36"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
       <c r="N47" s="35"/>
-      <c r="O47" s="36"/>
+      <c r="O47" s="34"/>
       <c r="P47" s="35"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="36"/>
-      <c r="S47" s="36"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="36"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="36"/>
-      <c r="Y47" s="36"/>
-      <c r="Z47" s="36"/>
-      <c r="AA47" s="28"/>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
       <c r="AB47" s="28"/>
-      <c r="AC47" s="5"/>
-    </row>
-    <row r="48" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="5"/>
+      <c r="AC47" s="28"/>
+      <c r="AD47" s="5"/>
+    </row>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
       <c r="AC48" s="5"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD48" s="5"/>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="27"/>
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
@@ -4079,8 +4210,9 @@
       <c r="Y49" s="27"/>
       <c r="Z49" s="27"/>
       <c r="AA49" s="27"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AB49" s="27"/>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="27"/>
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
@@ -4108,25 +4240,26 @@
       <c r="Y50" s="27"/>
       <c r="Z50" s="27"/>
       <c r="AA50" s="27"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="39"/>
+      <c r="AB50" s="27"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
       <c r="P51" s="38"/>
-      <c r="Q51" s="27"/>
+      <c r="Q51" s="37"/>
       <c r="R51" s="27"/>
       <c r="S51" s="27"/>
       <c r="T51" s="27"/>
@@ -4137,25 +4270,26 @@
       <c r="Y51" s="27"/>
       <c r="Z51" s="27"/>
       <c r="AA51" s="27"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
+      <c r="AB51" s="27"/>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
       <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
       <c r="P52" s="40"/>
-      <c r="Q52" s="27"/>
+      <c r="Q52" s="39"/>
       <c r="R52" s="27"/>
       <c r="S52" s="27"/>
       <c r="T52" s="27"/>
@@ -4166,25 +4300,26 @@
       <c r="Y52" s="27"/>
       <c r="Z52" s="27"/>
       <c r="AA52" s="27"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="42"/>
-      <c r="M53" s="42"/>
+      <c r="AB52" s="27"/>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="40"/>
+      <c r="M53" s="41"/>
       <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
+      <c r="O53" s="40"/>
       <c r="P53" s="40"/>
-      <c r="Q53" s="27"/>
+      <c r="Q53" s="39"/>
       <c r="R53" s="27"/>
       <c r="S53" s="27"/>
       <c r="T53" s="27"/>
@@ -4195,25 +4330,26 @@
       <c r="Y53" s="27"/>
       <c r="Z53" s="27"/>
       <c r="AA53" s="27"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
+      <c r="AB53" s="27"/>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="41"/>
       <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
+      <c r="O54" s="40"/>
       <c r="P54" s="40"/>
-      <c r="Q54" s="27"/>
+      <c r="Q54" s="39"/>
       <c r="R54" s="27"/>
       <c r="S54" s="27"/>
       <c r="T54" s="27"/>
@@ -4224,25 +4360,26 @@
       <c r="Y54" s="27"/>
       <c r="Z54" s="27"/>
       <c r="AA54" s="27"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="42"/>
-      <c r="M55" s="42"/>
+      <c r="AB54" s="27"/>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="41"/>
       <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
+      <c r="O55" s="40"/>
       <c r="P55" s="40"/>
-      <c r="Q55" s="27"/>
+      <c r="Q55" s="39"/>
       <c r="R55" s="27"/>
       <c r="S55" s="27"/>
       <c r="T55" s="27"/>
@@ -4253,25 +4390,26 @@
       <c r="Y55" s="27"/>
       <c r="Z55" s="27"/>
       <c r="AA55" s="27"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="41"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="42"/>
-      <c r="M56" s="42"/>
+      <c r="AB55" s="27"/>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="40"/>
+      <c r="M56" s="41"/>
       <c r="N56" s="41"/>
-      <c r="O56" s="41"/>
+      <c r="O56" s="40"/>
       <c r="P56" s="40"/>
-      <c r="Q56" s="27"/>
+      <c r="Q56" s="39"/>
       <c r="R56" s="27"/>
       <c r="S56" s="27"/>
       <c r="T56" s="27"/>
@@ -4282,25 +4420,26 @@
       <c r="Y56" s="27"/>
       <c r="Z56" s="27"/>
       <c r="AA56" s="27"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="42"/>
-      <c r="M57" s="42"/>
+      <c r="AB56" s="27"/>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="41"/>
-      <c r="O57" s="41"/>
+      <c r="O57" s="40"/>
       <c r="P57" s="40"/>
-      <c r="Q57" s="27"/>
+      <c r="Q57" s="39"/>
       <c r="R57" s="27"/>
       <c r="S57" s="27"/>
       <c r="T57" s="27"/>
@@ -4311,25 +4450,26 @@
       <c r="Y57" s="27"/>
       <c r="Z57" s="27"/>
       <c r="AA57" s="27"/>
-    </row>
-    <row r="58" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
+      <c r="AB57" s="27"/>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="40"/>
       <c r="L58" s="40"/>
-      <c r="M58" s="40"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="41"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="40"/>
       <c r="P58" s="40"/>
-      <c r="Q58" s="27"/>
+      <c r="Q58" s="39"/>
       <c r="R58" s="27"/>
       <c r="S58" s="27"/>
       <c r="T58" s="27"/>
@@ -4340,25 +4480,26 @@
       <c r="Y58" s="27"/>
       <c r="Z58" s="27"/>
       <c r="AA58" s="27"/>
-    </row>
-    <row r="59" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="41"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="42"/>
+      <c r="AB58" s="27"/>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="40"/>
       <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
       <c r="P59" s="40"/>
-      <c r="Q59" s="27"/>
+      <c r="Q59" s="39"/>
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
@@ -4369,25 +4510,26 @@
       <c r="Y59" s="27"/>
       <c r="Z59" s="27"/>
       <c r="AA59" s="27"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="41"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
+      <c r="AB59" s="27"/>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
       <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="42"/>
-      <c r="M60" s="42"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="40"/>
+      <c r="M60" s="41"/>
       <c r="N60" s="41"/>
-      <c r="O60" s="41"/>
+      <c r="O60" s="40"/>
       <c r="P60" s="40"/>
-      <c r="Q60" s="27"/>
+      <c r="Q60" s="39"/>
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
@@ -4398,25 +4540,26 @@
       <c r="Y60" s="27"/>
       <c r="Z60" s="27"/>
       <c r="AA60" s="27"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="41"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
+      <c r="AB60" s="27"/>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
       <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="42"/>
-      <c r="M61" s="42"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="40"/>
+      <c r="M61" s="41"/>
       <c r="N61" s="41"/>
-      <c r="O61" s="41"/>
+      <c r="O61" s="40"/>
       <c r="P61" s="40"/>
-      <c r="Q61" s="27"/>
+      <c r="Q61" s="39"/>
       <c r="R61" s="27"/>
       <c r="S61" s="27"/>
       <c r="T61" s="27"/>
@@ -4427,25 +4570,26 @@
       <c r="Y61" s="27"/>
       <c r="Z61" s="27"/>
       <c r="AA61" s="27"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="41"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
+      <c r="AB61" s="27"/>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="40"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="40"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="41"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
+      <c r="O62" s="40"/>
       <c r="P62" s="40"/>
-      <c r="Q62" s="27"/>
+      <c r="Q62" s="39"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
       <c r="T62" s="27"/>
@@ -4456,25 +4600,26 @@
       <c r="Y62" s="27"/>
       <c r="Z62" s="27"/>
       <c r="AA62" s="27"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
+      <c r="AB62" s="27"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="40"/>
       <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="40"/>
       <c r="P63" s="40"/>
-      <c r="Q63" s="27"/>
+      <c r="Q63" s="39"/>
       <c r="R63" s="27"/>
       <c r="S63" s="27"/>
       <c r="T63" s="27"/>
@@ -4485,25 +4630,26 @@
       <c r="Y63" s="27"/>
       <c r="Z63" s="27"/>
       <c r="AA63" s="27"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="41"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
+      <c r="AB63" s="27"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="40"/>
       <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="40"/>
       <c r="P64" s="40"/>
-      <c r="Q64" s="27"/>
+      <c r="Q64" s="39"/>
       <c r="R64" s="27"/>
       <c r="S64" s="27"/>
       <c r="T64" s="27"/>
@@ -4514,25 +4660,26 @@
       <c r="Y64" s="27"/>
       <c r="Z64" s="27"/>
       <c r="AA64" s="27"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="41"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="42"/>
-      <c r="M65" s="42"/>
+      <c r="AB64" s="27"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="40"/>
+      <c r="M65" s="41"/>
       <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
+      <c r="O65" s="40"/>
       <c r="P65" s="40"/>
-      <c r="Q65" s="27"/>
+      <c r="Q65" s="39"/>
       <c r="R65" s="27"/>
       <c r="S65" s="27"/>
       <c r="T65" s="27"/>
@@ -4543,25 +4690,26 @@
       <c r="Y65" s="27"/>
       <c r="Z65" s="27"/>
       <c r="AA65" s="27"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="41"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="42"/>
-      <c r="M66" s="42"/>
+      <c r="AB65" s="27"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="41"/>
       <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
+      <c r="O66" s="40"/>
       <c r="P66" s="40"/>
-      <c r="Q66" s="27"/>
+      <c r="Q66" s="39"/>
       <c r="R66" s="27"/>
       <c r="S66" s="27"/>
       <c r="T66" s="27"/>
@@ -4572,25 +4720,26 @@
       <c r="Y66" s="27"/>
       <c r="Z66" s="27"/>
       <c r="AA66" s="27"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
+      <c r="AB66" s="27"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="40"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="40"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
+      <c r="O67" s="40"/>
       <c r="P67" s="40"/>
-      <c r="Q67" s="27"/>
+      <c r="Q67" s="39"/>
       <c r="R67" s="27"/>
       <c r="S67" s="27"/>
       <c r="T67" s="27"/>
@@ -4601,25 +4750,26 @@
       <c r="Y67" s="27"/>
       <c r="Z67" s="27"/>
       <c r="AA67" s="27"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="41"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="44"/>
-      <c r="H68" s="44"/>
-      <c r="I68" s="44"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
+      <c r="AB67" s="27"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="40"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="40"/>
       <c r="L68" s="40"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
       <c r="P68" s="40"/>
-      <c r="Q68" s="27"/>
+      <c r="Q68" s="39"/>
       <c r="R68" s="27"/>
       <c r="S68" s="27"/>
       <c r="T68" s="27"/>
@@ -4630,25 +4780,26 @@
       <c r="Y68" s="27"/>
       <c r="Z68" s="27"/>
       <c r="AA68" s="27"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="41"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="40"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="42"/>
-      <c r="M69" s="42"/>
+      <c r="AB68" s="27"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="40"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+      <c r="M69" s="41"/>
       <c r="N69" s="41"/>
-      <c r="O69" s="41"/>
+      <c r="O69" s="40"/>
       <c r="P69" s="40"/>
-      <c r="Q69" s="27"/>
+      <c r="Q69" s="39"/>
       <c r="R69" s="27"/>
       <c r="S69" s="27"/>
       <c r="T69" s="27"/>
@@ -4659,25 +4810,26 @@
       <c r="Y69" s="27"/>
       <c r="Z69" s="27"/>
       <c r="AA69" s="27"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="40"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="42"/>
-      <c r="M70" s="42"/>
+      <c r="AB69" s="27"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+      <c r="M70" s="41"/>
       <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
+      <c r="O70" s="40"/>
       <c r="P70" s="40"/>
-      <c r="Q70" s="27"/>
+      <c r="Q70" s="39"/>
       <c r="R70" s="27"/>
       <c r="S70" s="27"/>
       <c r="T70" s="27"/>
@@ -4688,25 +4840,26 @@
       <c r="Y70" s="27"/>
       <c r="Z70" s="27"/>
       <c r="AA70" s="27"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="40"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="42"/>
-      <c r="M71" s="42"/>
+      <c r="AB70" s="27"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="40"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="40"/>
+      <c r="M71" s="41"/>
       <c r="N71" s="41"/>
-      <c r="O71" s="41"/>
+      <c r="O71" s="40"/>
       <c r="P71" s="40"/>
-      <c r="Q71" s="27"/>
+      <c r="Q71" s="39"/>
       <c r="R71" s="27"/>
       <c r="S71" s="27"/>
       <c r="T71" s="27"/>
@@ -4717,25 +4870,26 @@
       <c r="Y71" s="27"/>
       <c r="Z71" s="27"/>
       <c r="AA71" s="27"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="41"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="41"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="41"/>
-      <c r="F72" s="40"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="42"/>
-      <c r="M72" s="42"/>
+      <c r="AB71" s="27"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="40"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="40"/>
+      <c r="M72" s="41"/>
       <c r="N72" s="41"/>
-      <c r="O72" s="41"/>
+      <c r="O72" s="40"/>
       <c r="P72" s="40"/>
-      <c r="Q72" s="27"/>
+      <c r="Q72" s="39"/>
       <c r="R72" s="27"/>
       <c r="S72" s="27"/>
       <c r="T72" s="27"/>
@@ -4746,25 +4900,26 @@
       <c r="Y72" s="27"/>
       <c r="Z72" s="27"/>
       <c r="AA72" s="27"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="41"/>
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="40"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="42"/>
-      <c r="M73" s="42"/>
+      <c r="AB72" s="27"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="40"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="40"/>
+      <c r="M73" s="41"/>
       <c r="N73" s="41"/>
-      <c r="O73" s="41"/>
+      <c r="O73" s="40"/>
       <c r="P73" s="40"/>
-      <c r="Q73" s="27"/>
+      <c r="Q73" s="39"/>
       <c r="R73" s="27"/>
       <c r="S73" s="27"/>
       <c r="T73" s="27"/>
@@ -4775,25 +4930,26 @@
       <c r="Y73" s="27"/>
       <c r="Z73" s="27"/>
       <c r="AA73" s="27"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="41"/>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="40"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="42"/>
-      <c r="M74" s="42"/>
+      <c r="AB73" s="27"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="40"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="40"/>
+      <c r="M74" s="41"/>
       <c r="N74" s="41"/>
-      <c r="O74" s="41"/>
+      <c r="O74" s="40"/>
       <c r="P74" s="40"/>
-      <c r="Q74" s="27"/>
+      <c r="Q74" s="39"/>
       <c r="R74" s="27"/>
       <c r="S74" s="27"/>
       <c r="T74" s="27"/>
@@ -4804,25 +4960,26 @@
       <c r="Y74" s="27"/>
       <c r="Z74" s="27"/>
       <c r="AA74" s="27"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41"/>
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="40"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
+      <c r="AB74" s="27"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="40"/>
       <c r="L75" s="40"/>
-      <c r="M75" s="40"/>
-      <c r="N75" s="41"/>
-      <c r="O75" s="41"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
+      <c r="O75" s="40"/>
       <c r="P75" s="40"/>
-      <c r="Q75" s="27"/>
+      <c r="Q75" s="39"/>
       <c r="R75" s="27"/>
       <c r="S75" s="27"/>
       <c r="T75" s="27"/>
@@ -4833,25 +4990,26 @@
       <c r="Y75" s="27"/>
       <c r="Z75" s="27"/>
       <c r="AA75" s="27"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41"/>
-      <c r="B76" s="41"/>
-      <c r="C76" s="41"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
-      <c r="F76" s="40"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="AB75" s="27"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="41"/>
       <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-      <c r="O76" s="41"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
       <c r="P76" s="40"/>
-      <c r="Q76" s="27"/>
+      <c r="Q76" s="39"/>
       <c r="R76" s="27"/>
       <c r="S76" s="27"/>
       <c r="T76" s="27"/>
@@ -4862,25 +5020,26 @@
       <c r="Y76" s="27"/>
       <c r="Z76" s="27"/>
       <c r="AA76" s="27"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41"/>
-      <c r="B77" s="41"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-      <c r="O77" s="41"/>
+      <c r="AB76" s="27"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="40"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
       <c r="P77" s="40"/>
-      <c r="Q77" s="27"/>
+      <c r="Q77" s="39"/>
       <c r="R77" s="27"/>
       <c r="S77" s="27"/>
       <c r="T77" s="27"/>
@@ -4891,25 +5050,26 @@
       <c r="Y77" s="27"/>
       <c r="Z77" s="27"/>
       <c r="AA77" s="27"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="41"/>
-      <c r="B78" s="41"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-      <c r="O78" s="41"/>
+      <c r="AB77" s="27"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="40"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="40"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
       <c r="P78" s="40"/>
-      <c r="Q78" s="27"/>
+      <c r="Q78" s="39"/>
       <c r="R78" s="27"/>
       <c r="S78" s="27"/>
       <c r="T78" s="27"/>
@@ -4920,25 +5080,26 @@
       <c r="Y78" s="27"/>
       <c r="Z78" s="27"/>
       <c r="AA78" s="27"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="41"/>
-      <c r="B79" s="41"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="AB78" s="27"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="40"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="40"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="40"/>
+      <c r="J79" s="40"/>
+      <c r="K79" s="41"/>
       <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-      <c r="O79" s="41"/>
+      <c r="M79" s="40"/>
+      <c r="N79" s="40"/>
+      <c r="O79" s="40"/>
       <c r="P79" s="40"/>
-      <c r="Q79" s="27"/>
+      <c r="Q79" s="39"/>
       <c r="R79" s="27"/>
       <c r="S79" s="27"/>
       <c r="T79" s="27"/>
@@ -4949,25 +5110,26 @@
       <c r="Y79" s="27"/>
       <c r="Z79" s="27"/>
       <c r="AA79" s="27"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="41"/>
-      <c r="B80" s="41"/>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="43"/>
+      <c r="AB79" s="27"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="40"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
+      <c r="J80" s="40"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="40"/>
+      <c r="M80" s="40"/>
+      <c r="N80" s="40"/>
       <c r="O80" s="42"/>
-      <c r="P80" s="40"/>
-      <c r="Q80" s="27"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="39"/>
       <c r="R80" s="27"/>
       <c r="S80" s="27"/>
       <c r="T80" s="27"/>
@@ -4978,345 +5140,364 @@
       <c r="Y80" s="27"/>
       <c r="Z80" s="27"/>
       <c r="AA80" s="27"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="46"/>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="48"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="46"/>
-      <c r="H82" s="50"/>
-      <c r="I82" s="50"/>
-      <c r="J82" s="50"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="47"/>
-      <c r="M82" s="51"/>
-      <c r="N82" s="51"/>
-      <c r="O82" s="47"/>
-      <c r="P82" s="47"/>
+      <c r="AB80" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="45"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="49"/>
+      <c r="I82" s="49"/>
+      <c r="J82" s="49"/>
+      <c r="K82" s="49"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="50"/>
+      <c r="O82" s="50"/>
+      <c r="P82" s="46"/>
       <c r="Q82" s="46"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="47"/>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="46"/>
-      <c r="H83" s="50"/>
-      <c r="I83" s="50"/>
-      <c r="J83" s="50"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="51"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
+      <c r="R82" s="45"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="49"/>
+      <c r="I83" s="49"/>
+      <c r="J83" s="49"/>
+      <c r="K83" s="49"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="46"/>
       <c r="Q83" s="46"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="47"/>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="51"/>
-      <c r="G84" s="46"/>
-      <c r="H84" s="50"/>
-      <c r="I84" s="50"/>
-      <c r="J84" s="50"/>
-      <c r="K84" s="50"/>
-      <c r="L84" s="50"/>
-      <c r="M84" s="51"/>
-      <c r="N84" s="51"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
+      <c r="R83" s="45"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="45"/>
+      <c r="H84" s="49"/>
+      <c r="I84" s="49"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="50"/>
+      <c r="O84" s="50"/>
+      <c r="P84" s="46"/>
       <c r="Q84" s="46"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="47"/>
-      <c r="B85" s="47"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="47"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="50"/>
+      <c r="R84" s="45"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="49"/>
       <c r="I85" s="49"/>
-      <c r="J85" s="49"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="47"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="46"/>
       <c r="M85" s="46"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="47"/>
-      <c r="P85" s="47"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="46"/>
       <c r="Q85" s="46"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="47"/>
-      <c r="B86" s="47"/>
-      <c r="C86" s="47"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="47"/>
-      <c r="G86" s="46"/>
-      <c r="H86" s="50"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="50"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="47"/>
-      <c r="M86" s="51"/>
-      <c r="N86" s="51"/>
-      <c r="O86" s="47"/>
-      <c r="P86" s="47"/>
+      <c r="R85" s="45"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="47"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="50"/>
+      <c r="O86" s="50"/>
+      <c r="P86" s="46"/>
       <c r="Q86" s="46"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="47"/>
-      <c r="B87" s="47"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="46"/>
-      <c r="H87" s="50"/>
-      <c r="I87" s="50"/>
-      <c r="J87" s="50"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="47"/>
-      <c r="M87" s="51"/>
-      <c r="N87" s="51"/>
-      <c r="O87" s="47"/>
-      <c r="P87" s="47"/>
+      <c r="R86" s="45"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="46"/>
       <c r="Q87" s="46"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="47"/>
-      <c r="B88" s="47"/>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="47"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="47"/>
-      <c r="I88" s="47"/>
-      <c r="J88" s="47"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="47"/>
-      <c r="N88" s="47"/>
-      <c r="O88" s="47"/>
-      <c r="P88" s="47"/>
+      <c r="R87" s="45"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
       <c r="Q88" s="46"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="47"/>
-      <c r="B89" s="47"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="47"/>
-      <c r="G89" s="46"/>
-      <c r="H89" s="47"/>
-      <c r="I89" s="47"/>
-      <c r="J89" s="47"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="47"/>
-      <c r="M89" s="47"/>
-      <c r="N89" s="47"/>
-      <c r="O89" s="49"/>
-      <c r="P89" s="51"/>
-      <c r="Q89" s="47"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="47"/>
-      <c r="B90" s="47"/>
-      <c r="C90" s="47"/>
-      <c r="D90" s="47"/>
-      <c r="E90" s="47"/>
-      <c r="F90" s="47"/>
-      <c r="G90" s="47"/>
-      <c r="H90" s="47"/>
-      <c r="I90" s="47"/>
-      <c r="J90" s="47"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="47"/>
-      <c r="M90" s="47"/>
-      <c r="N90" s="47"/>
-      <c r="O90" s="47"/>
-      <c r="P90" s="47"/>
-      <c r="Q90" s="47"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="52"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="28"/>
+      <c r="R88" s="45"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="50"/>
+      <c r="R89" s="46"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="51"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+      <c r="I91" s="34"/>
+      <c r="J91" s="34"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="28"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="52"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="28"/>
+      <c r="M91" s="28"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="51"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
       <c r="L92" s="28"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="52"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="28"/>
+      <c r="M92" s="28"/>
+    </row>
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="51"/>
+      <c r="B93" s="34"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
       <c r="L93" s="28"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="52"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="28"/>
+      <c r="M93" s="28"/>
+    </row>
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="51"/>
+      <c r="B94" s="34"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="28"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="52"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="28"/>
+      <c r="M94" s="28"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="51"/>
+      <c r="B95" s="34"/>
+      <c r="C95" s="34"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="34"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="34"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="34"/>
       <c r="L95" s="28"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="52"/>
-      <c r="B96" s="35"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
-      <c r="I96" s="35"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="28"/>
+      <c r="M95" s="28"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="51"/>
+      <c r="B96" s="34"/>
+      <c r="C96" s="34"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
       <c r="L96" s="28"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="52"/>
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="28"/>
+      <c r="M96" s="28"/>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="51"/>
+      <c r="B97" s="34"/>
+      <c r="C97" s="34"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="34"/>
+      <c r="F97" s="34"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="34"/>
+      <c r="I97" s="34"/>
+      <c r="J97" s="34"/>
+      <c r="K97" s="34"/>
       <c r="L97" s="28"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="52"/>
-      <c r="B98" s="35"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="28"/>
+      <c r="M97" s="28"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="51"/>
+      <c r="B98" s="34"/>
+      <c r="C98" s="34"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="34"/>
+      <c r="K98" s="34"/>
       <c r="L98" s="28"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="52"/>
-      <c r="B99" s="35"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="28"/>
+      <c r="M98" s="28"/>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="51"/>
+      <c r="B99" s="34"/>
+      <c r="C99" s="34"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="34"/>
+      <c r="F99" s="34"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="34"/>
+      <c r="I99" s="34"/>
+      <c r="J99" s="34"/>
+      <c r="K99" s="34"/>
       <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="J90:K90"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
